--- a/data/trans_camb/P36B08_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P36B08_R-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 14,28</t>
+          <t>1,6; 13,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,85; 14,99</t>
+          <t>3,34; 15,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,59; 30,98</t>
+          <t>21,61; 31,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,09; 19,1</t>
+          <t>6,51; 19,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 14,02</t>
+          <t>1,17; 13,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,09; 28,91</t>
+          <t>18,87; 29,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,89; 14,85</t>
+          <t>5,27; 14,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,92; 13,51</t>
+          <t>4,25; 13,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,49; 28,97</t>
+          <t>22,4; 29,26</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,71; 21,61</t>
+          <t>2,15; 20,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,86; 22,36</t>
+          <t>4,64; 23,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,21; 47,11</t>
+          <t>29,0; 47,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,17; 27,12</t>
+          <t>8,43; 28,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 19,83</t>
+          <t>1,68; 19,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,22; 41,76</t>
+          <t>23,87; 43,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,03; 21,68</t>
+          <t>7,29; 20,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,25; 19,29</t>
+          <t>5,89; 18,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>30,13; 42,07</t>
+          <t>30,0; 42,64</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,66; 17,63</t>
+          <t>3,83; 18,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,55; 21,29</t>
+          <t>7,67; 21,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,73; 36,84</t>
+          <t>25,36; 36,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,43; 16,72</t>
+          <t>3,48; 16,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,88; 16,53</t>
+          <t>3,61; 17,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,79; 32,93</t>
+          <t>23,23; 33,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,01; 14,85</t>
+          <t>5,2; 14,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,07; 16,78</t>
+          <t>7,29; 16,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,97; 33,36</t>
+          <t>25,71; 33,43</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,6; 29,66</t>
+          <t>5,85; 29,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,19; 35,9</t>
+          <t>11,04; 35,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>37,51; 62,46</t>
+          <t>36,88; 62,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,85; 25,66</t>
+          <t>4,68; 24,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,07; 25,82</t>
+          <t>5,01; 26,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,25; 51,62</t>
+          <t>32,09; 52,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,36; 23,11</t>
+          <t>7,46; 23,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,88; 26,36</t>
+          <t>10,3; 25,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>37,26; 52,8</t>
+          <t>37,0; 53,29</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,38; 17,46</t>
+          <t>6,62; 17,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,98; 13,49</t>
+          <t>1,91; 13,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29,81; 40,39</t>
+          <t>30,19; 40,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,66; 20,12</t>
+          <t>2,58; 20,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 19,94</t>
+          <t>0,4; 20,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,96; 33,39</t>
+          <t>18,79; 33,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,48; 16,88</t>
+          <t>7,07; 16,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,23; 13,47</t>
+          <t>3,37; 13,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28,55; 37,03</t>
+          <t>28,69; 37,6</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,81; 29,9</t>
+          <t>9,83; 29,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,81; 22,48</t>
+          <t>3,02; 22,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>44,75; 69,85</t>
+          <t>45,86; 68,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,81; 32,74</t>
+          <t>3,21; 32,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,5; 31,11</t>
+          <t>1,2; 32,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,63; 53,41</t>
+          <t>24,64; 54,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>11,39; 27,54</t>
+          <t>10,66; 26,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,77; 21,79</t>
+          <t>5,31; 21,63</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>42,37; 60,86</t>
+          <t>42,98; 62,12</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,11; 10,14</t>
+          <t>2,04; 10,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,22; 9,62</t>
+          <t>2,48; 10,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>25,96; 32,38</t>
+          <t>25,95; 32,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,6; 11,99</t>
+          <t>2,42; 11,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,14; 9,61</t>
+          <t>0,39; 9,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,3; 29,39</t>
+          <t>21,53; 29,33</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,64; 9,52</t>
+          <t>4,04; 9,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,07; 8,94</t>
+          <t>3,13; 8,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>25,47; 30,48</t>
+          <t>25,26; 30,44</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,34; 16,13</t>
+          <t>3,06; 16,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,27; 15,31</t>
+          <t>3,77; 16,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>38,94; 51,96</t>
+          <t>38,66; 52,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,54; 17,75</t>
+          <t>3,51; 17,2</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,16; 14,2</t>
+          <t>0,49; 13,59</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>28,6; 43,17</t>
+          <t>29,2; 43,33</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,19; 14,51</t>
+          <t>5,77; 15,09</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,5; 13,71</t>
+          <t>4,56; 13,5</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>36,98; 46,87</t>
+          <t>36,55; 46,7</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,95; 18,25</t>
+          <t>4,87; 18,55</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,17; 20,42</t>
+          <t>7,19; 20,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>27,77; 39,87</t>
+          <t>27,65; 39,72</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,82; 12,9</t>
+          <t>2,93; 12,81</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,11; 12,36</t>
+          <t>2,86; 12,7</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>20,38; 28,89</t>
+          <t>20,91; 28,63</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,26; 13,05</t>
+          <t>5,13; 13,22</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>5,56; 13,7</t>
+          <t>5,53; 13,33</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>24,7; 31,51</t>
+          <t>24,32; 31,5</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>7,93; 33,56</t>
+          <t>7,65; 34,87</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>11,44; 38,19</t>
+          <t>11,4; 37,06</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>43,84; 74,58</t>
+          <t>44,03; 74,05</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>3,87; 19,09</t>
+          <t>3,94; 18,93</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>3,18; 18,44</t>
+          <t>3,83; 18,57</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>27,37; 43,01</t>
+          <t>28,17; 42,68</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>7,66; 20,36</t>
+          <t>7,45; 20,84</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>8,05; 21,41</t>
+          <t>8,06; 20,88</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>35,74; 49,81</t>
+          <t>35,2; 49,87</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 5,87</t>
+          <t>-9,95; 6,42</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,06; 18,44</t>
+          <t>2,46; 19,01</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>26,3; 45,19</t>
+          <t>27,53; 44,93</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>4,03; 10,81</t>
+          <t>3,33; 10,64</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,47; 8,06</t>
+          <t>0,79; 8,01</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>19,9; 26,45</t>
+          <t>19,96; 26,22</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,38; 9,42</t>
+          <t>2,25; 8,83</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,92; 8,8</t>
+          <t>2,28; 8,71</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>22,06; 28,85</t>
+          <t>22,23; 28,66</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-19,23; 12,49</t>
+          <t>-17,92; 13,66</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>3,64; 38,86</t>
+          <t>4,24; 39,1</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>48,34; 96,02</t>
+          <t>50,09; 94,99</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>5,53; 15,54</t>
+          <t>4,49; 15,27</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>0,63; 11,61</t>
+          <t>1,04; 11,47</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>27,52; 38,29</t>
+          <t>27,37; 37,87</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>3,43; 14,3</t>
+          <t>3,35; 13,5</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>2,76; 13,47</t>
+          <t>3,33; 13,22</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>31,93; 44,06</t>
+          <t>32,31; 43,57</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>5,6; 10,43</t>
+          <t>5,63; 10,36</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>6,75; 11,43</t>
+          <t>6,84; 11,38</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>29,13; 33,5</t>
+          <t>29,1; 33,37</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>6,37; 10,5</t>
+          <t>6,31; 10,39</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>4,2; 8,36</t>
+          <t>4,05; 8,39</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>23,21; 26,61</t>
+          <t>23,23; 26,89</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>6,65; 9,87</t>
+          <t>6,78; 9,88</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>6,07; 9,3</t>
+          <t>6,23; 9,35</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>26,72; 29,32</t>
+          <t>26,72; 29,46</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>8,68; 16,93</t>
+          <t>8,76; 16,81</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>10,46; 18,45</t>
+          <t>10,55; 18,34</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>44,9; 54,12</t>
+          <t>45,0; 54,06</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>8,83; 15,08</t>
+          <t>8,72; 14,84</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>5,82; 11,94</t>
+          <t>5,58; 12,01</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>31,9; 38,12</t>
+          <t>32,12; 38,61</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>9,7; 14,83</t>
+          <t>9,96; 14,95</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>8,94; 13,95</t>
+          <t>9,11; 14,11</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>39,16; 44,31</t>
+          <t>39,21; 44,55</t>
         </is>
       </c>
     </row>
